--- a/report/codebook.xlsx
+++ b/report/codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmsa3-my.sharepoint.com/personal/stepan_paulik_cmsa3_onmicrosoft_com/Documents/Programming/ccc_dataset/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepanpaulik/Programming/ccc_dataset/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="11_388B7AAD34E1197D0FC67471D851755576C3E980" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31405799-3D01-E941-8D12-2C9ACA79C706}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D8EC03-1A81-9A47-BD00-08ABACDBFAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="1460" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="4" r:id="rId1"/>
@@ -188,39 +188,6 @@
     <t>Length of the legal proceeding in days from the date of the submisison until the date of decision.</t>
   </si>
   <si>
-    <t>Nested part of the  {parties} dataset specifying who the applicant was.</t>
-  </si>
-  <si>
-    <t>Nested part of the  {parties} dataset specifying what the body concerned was.</t>
-  </si>
-  <si>
-    <t>Nested part of the  {disputed_acts} dataset.</t>
-  </si>
-  <si>
-    <t>Nested part of the  {separate_opinions} dataset.</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>Judge ID representing a unique identifier for each judge. The identifier can be used to join with the  { judges} dataset.</t>
-  </si>
-  <si>
-    <t>Nested part of the  { verdicts} dataset.</t>
-  </si>
-  <si>
-    <t>Nested part of the  { references} dataset.</t>
-  </si>
-  <si>
-    <t>Nested part of the  { subject_matter} dataset.</t>
-  </si>
-  <si>
-    <t>Nested part of the  { compositions} dataset.</t>
-  </si>
-  <si>
-    <t>texts</t>
-  </si>
-  <si>
     <t>Document ID representing a unique identifier for each decision.</t>
   </si>
   <si>
@@ -236,9 +203,6 @@
     <t xml:space="preserve">A judge ID representing a unique identifier across all judge-level or judge-including datasets. </t>
   </si>
   <si>
-    <t>judges</t>
-  </si>
-  <si>
     <t>The full name of the judge.</t>
   </si>
   <si>
@@ -260,9 +224,6 @@
     <t>judge_gender</t>
   </si>
   <si>
-    <t>The university where the judge obtained their degree.</t>
-  </si>
-  <si>
     <t>judge_uni</t>
   </si>
   <si>
@@ -281,9 +242,6 @@
     <t>judge_term_court</t>
   </si>
   <si>
-    <t>The term roughly corresponding to each decade of the CCC.</t>
-  </si>
-  <si>
     <t>judge_term_president</t>
   </si>
   <si>
@@ -296,9 +254,6 @@
     <t>dummy</t>
   </si>
   <si>
-    <t xml:space="preserve"> A dummy variable indicating whether a justice ran for more than one term. Whether the reelection attempt was succesfull or not can be discerned from the fact that the succesfull candidates have more than one observation in the {judges} dataset.</t>
-  </si>
-  <si>
     <t>judge_initials</t>
   </si>
   <si>
@@ -308,9 +263,6 @@
     <t>Full text of a decision.</t>
   </si>
   <si>
-    <t>clerks</t>
-  </si>
-  <si>
     <t>Judge ID  of the judge under whom the clerk worked.</t>
   </si>
   <si>
@@ -368,15 +320,9 @@
     <t>A dummy variable indicating whether the clerk obtained one of their degree abroad. The data was obtained from the {clerk_name_full} under the assumption that the Czech legal degrees differ from the typical LLB and LLM degrees.</t>
   </si>
   <si>
-    <t>compositions</t>
-  </si>
-  <si>
     <t>The full name of the judge sitting at the case.</t>
   </si>
   <si>
-    <t>separate_opinions</t>
-  </si>
-  <si>
     <t>The judge ID of the judge  sitting at the case.</t>
   </si>
   <si>
@@ -398,9 +344,6 @@
     <t>The CCC judges can elect to dissent either alone or together with other people. The {dissenting_group} variables captures this distinction. When the judges attached a separate opinion together, they fall into the same {dissenting_group}.</t>
   </si>
   <si>
-    <t>parties</t>
-  </si>
-  <si>
     <t>party</t>
   </si>
   <si>
@@ -416,18 +359,9 @@
     <t>Specification of the side at which the party stood before the CCC. Either they were the applicant party or the concerned body. A concerned body is typically the body, whose decision or legal act is being reviewed by the CCC. However, the court proceedings before the CCC do not have a contradictory form of proceedings.</t>
   </si>
   <si>
-    <t>The nature of the party, i.e., whether they are a natural person, legal person, state authority, court, or, for example, state prosecution.</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
     <t>concerned_act</t>
   </si>
   <si>
-    <t>subject_matter</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -437,9 +371,6 @@
     <t>The CCC database contains two entries: subject of proceedings (předmět řízení) or subject register (věcný rejstřík). Both entries are very similar, although subject register mostly concerns areas of constitutional law (which constitutional right such as freedom of speech was infringed), whereas the subject proceedings mostly refers to the actual subject matter of proceedings. For clarity, the information about the source is kept.</t>
   </si>
   <si>
-    <t>disputed_acts</t>
-  </si>
-  <si>
     <t>The disputed act in question in full.</t>
   </si>
   <si>
@@ -449,9 +380,6 @@
     <t>disputed_act_type</t>
   </si>
   <si>
-    <t>verdicts</t>
-  </si>
-  <si>
     <t>verdict_type</t>
   </si>
   <si>
@@ -548,10 +476,82 @@
     <t>concerned_act_type</t>
   </si>
   <si>
-    <t>The col. number of the concerned act in the "number/year Sb." format with infromation on the specific paragraph whenever such an information was available. In the case of CCC caselaw, the concerned act is in the standard citation form of "formation. ÚS number/year", which can then further be linked to the {case_id} variable from the {decisions} dataset.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The type of the concerned act. Either an ordinary act (statute), a constitutional act (the Constitution, the Czech Charter of Fundamental Rights and Freedoms), or a CCC caselaw reference. </t>
+  </si>
+  <si>
+    <t>The university where the judge obtained their degree. Can take up values of CUNI (Charles University), MUNI (Masaryk University), KOM (Comenius University) at the moment. There are more universities in Czechia though that haven't yet produced a CC justice.</t>
+  </si>
+  <si>
+    <t>The term roughly corresponding to each decade of the CCC. Takes up values of 1st, 2nd, 3rd and 4th.</t>
+  </si>
+  <si>
+    <t>The nature of the party. Can take up values of natural_person, ministry, legal_person, court, municipality, parliament_representatives, state_authority, CCC chamber, political party, NA, ombudsperson, MP, region, president_republic, parliament_senate, government, police, state_prosecution, prison service, parliament_chamber_of_deputies, public insurance company, defense, and central bank.</t>
+  </si>
+  <si>
+    <t>ccc_metadata</t>
+  </si>
+  <si>
+    <t>ccc_texts</t>
+  </si>
+  <si>
+    <t>ccc_judges</t>
+  </si>
+  <si>
+    <t>ccc_clerks</t>
+  </si>
+  <si>
+    <t>ccc_compositions</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_compositions} dataset.</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_separate_opinions} dataset.</t>
+  </si>
+  <si>
+    <t>ccc_separate_opinions</t>
+  </si>
+  <si>
+    <t>ccc_parties</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_parties} dataset specifying who the applicant was.</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_parties} dataset specifying what the body concerned was.</t>
+  </si>
+  <si>
+    <t>ccc_references</t>
+  </si>
+  <si>
+    <t>ccc_subject_matter</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_disputed_acts} dataset.</t>
+  </si>
+  <si>
+    <t>ccc_disputed_acts</t>
+  </si>
+  <si>
+    <t>ccc_verdicts</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_verdicts} dataset.</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_references} dataset.</t>
+  </si>
+  <si>
+    <t>Nested part of the  {ccc_subject_matter} dataset.</t>
+  </si>
+  <si>
+    <t>Judge ID representing a unique identifier for each judge. The identifier can be used to join with the  {ccc_judges} dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A dummy variable indicating whether a justice ran for more than one term. Whether the reelection attempt was succesfull or not can be discerned from the fact that the succesfull candidates have more than one observation in the {ccc_judges} dataset.</t>
+  </si>
+  <si>
+    <t>The col. number of the concerned act in the "number/year Sb." format with infromation on the specific paragraph whenever such an information was available. In the case of CCC caselaw, the concerned act is in the standard citation form of "formation. ÚS number/year", which can then further be linked to the {case_id} variable from the {ccc_metadata} dataset.</t>
   </si>
 </sst>
 </file>
@@ -622,14 +622,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -773,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01847E62-FD8E-264A-B058-BD5A7029A0B2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -943,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -954,13 +950,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -968,13 +964,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -982,13 +978,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -996,13 +992,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1024,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,13 +1034,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1052,13 +1048,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1066,13 +1062,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1080,13 +1076,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1094,13 +1090,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1113,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1118,7 @@
     <col min="1" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="77.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="106.33203125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1151,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1163,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1191,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1211,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1231,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1251,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1271,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1291,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1311,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1331,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1351,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1371,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1383,7 +1379,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1403,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1431,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1443,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1451,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1463,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1483,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,19 +1487,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1511,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1523,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1531,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1543,7 +1539,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1563,7 +1559,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1571,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1583,7 +1579,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1603,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1631,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1651,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1671,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1691,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1711,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -1723,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -1743,7 +1739,7 @@
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1751,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -1763,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,19 +1767,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,19 +1787,19 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,19 +1807,19 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,19 +1827,19 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,19 +1847,19 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1871,19 +1867,19 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C38" s="1">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,19 +1887,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1911,19 +1907,19 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1931,19 +1927,19 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,19 +1947,19 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1">
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1971,19 +1967,19 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C43" s="1">
         <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C44" s="1">
         <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2011,19 +2007,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,19 +2027,19 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,19 +2047,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,19 +2067,19 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1">
         <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2091,19 +2087,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2111,19 +2107,19 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C50" s="1">
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2131,19 +2127,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2151,19 +2147,19 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,19 +2167,19 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C53" s="1">
         <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2191,19 +2187,19 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2211,19 +2207,19 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1">
         <v>54</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2231,19 +2227,19 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1">
         <v>55</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2251,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1">
         <v>56</v>
@@ -2263,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,19 +2267,19 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1">
         <v>57</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,19 +2287,19 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1">
         <v>58</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2311,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C60" s="1">
         <v>59</v>
@@ -2323,7 +2319,7 @@
         <v>30</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,19 +2327,19 @@
         <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,19 +2347,19 @@
         <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,19 +2367,19 @@
         <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1">
         <v>62</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -2403,7 +2399,7 @@
         <v>30</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2411,19 +2407,19 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C65" s="1">
         <v>64</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2431,19 +2427,19 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,19 +2447,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1">
         <v>67</v>
@@ -2483,7 +2479,7 @@
         <v>30</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1">
         <v>69</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
@@ -2543,7 +2539,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2551,19 +2547,19 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C72" s="1">
         <v>71</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2571,19 +2567,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C74" s="1">
         <v>73</v>
@@ -2603,7 +2599,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1">
         <v>74</v>
@@ -2623,7 +2619,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,19 +2627,19 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2651,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1">
         <v>76</v>
@@ -2663,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2671,19 +2667,19 @@
         <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,19 +2687,19 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/report/codebook.xlsx
+++ b/report/codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepanpaulik/Programming/ccc_dataset/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D8EC03-1A81-9A47-BD00-08ABACDBFAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98870690-3D82-4140-AA8C-385940701A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1460" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="4" r:id="rId1"/>
@@ -398,48 +398,15 @@
     <t>The grounds of each verdict. The possible values are merits, admissibility, and procedural. For a more detailed explanation, see the description of {verdict_type}.</t>
   </si>
   <si>
-    <t>This dataset includes information on the type of verdict the CCC reached in any given decision, i.e., whether the case was granted, rejected, rejected on inadmissibility, or whether it was a procedural verdict. Each observation is a decision-verdict composita. Each decision may contain more than one verdicts.</t>
-  </si>
-  <si>
-    <t>decision-verdict-level data</t>
-  </si>
-  <si>
-    <t>This dataset includes the disputed acts in any given decision. Each observation is a decision-disputed act composite. The data was obtained from the CCC database. Additionaly, information on the type of the disputed act was automatically added.</t>
-  </si>
-  <si>
-    <t>decision-disputed-acts-level data</t>
-  </si>
-  <si>
-    <t>This dataset contains information on the subject matter of cases. Each observation is a decision and one subject matter composite. The data was created by merging two information from the CCC database, namely on the subject proceedings and the concerned area of constitutional law.</t>
-  </si>
-  <si>
-    <t>decision-subject-matter level data</t>
-  </si>
-  <si>
     <t>This dataset contains the information on concerned legal acts, that is both ordinary statutes as well as constitutional acts, and references to CCC caselaw. The information on the concerned acts come from the CCC itself, whereas the references to the CCC caselaw have been automatically mined from the text corpus using regular expressions.</t>
   </si>
   <si>
-    <t>decision-reference-level references acts data</t>
-  </si>
-  <si>
-    <t>This dataset contains the information on parties, both the applicant and the involved party, as well as additional information on the type of the party. Each observation is a decision-party composite.</t>
-  </si>
-  <si>
-    <t>decision-party level parties data</t>
-  </si>
-  <si>
     <t>This dataset contains information on which judges attached a separate opinion to a decision. Each observation is a composite obervation of a decision and a judge that attached a separate in that decision. The information on whether a judge attached a separate opinion or not comes from the CCC's own database, the remaining data has been to some extent mined automatically from the text corpus using regular expressions. Because of a rather high degree of irregularity of the decisions from the first decade, the data is not entirely reliable for that period.</t>
   </si>
   <si>
-    <t>decision-judge-level separate-opinion data</t>
-  </si>
-  <si>
     <t>This dataset contains information on which judges sat at which case. Each observation is a composite obervation of a decision and a judge that took part in that decision. The data has been mined automatically from the text corpus using regular expressions. Because of a rather high degree of irregularity of the decisions from the first decade, the data is not entirely reliable for that period.</t>
   </si>
   <si>
-    <t>decision-level composition data</t>
-  </si>
-  <si>
     <t>This dataset includes judge-level information on all clerks that have served under a judge at the CCC. The dataset contains information on their background, such as gender, highest degree, or whether they studied abroad. All information has been partly automatically and partly manually coded based on publicly available information.</t>
   </si>
   <si>
@@ -552,6 +519,39 @@
   </si>
   <si>
     <t>The col. number of the concerned act in the "number/year Sb." format with infromation on the specific paragraph whenever such an information was available. In the case of CCC caselaw, the concerned act is in the standard citation form of "formation. ÚS number/year", which can then further be linked to the {case_id} variable from the {ccc_metadata} dataset.</t>
+  </si>
+  <si>
+    <t>separate-opinon-level separate-opinion data</t>
+  </si>
+  <si>
+    <t>sitting-judge-level composition data</t>
+  </si>
+  <si>
+    <t>party-level parties data</t>
+  </si>
+  <si>
+    <t>reference-level references acts data</t>
+  </si>
+  <si>
+    <t>subject-matter-level data</t>
+  </si>
+  <si>
+    <t>disputed-acts-level data</t>
+  </si>
+  <si>
+    <t>verdict-level data</t>
+  </si>
+  <si>
+    <t>This dataset contains the information on parties, both the applicant and the involved party, as well as additional information on the type of the party.</t>
+  </si>
+  <si>
+    <t>This dataset contains information on the subject matter of cases. Each observation one subject matter in any given decision. The data was created by merging two information from the CCC database, namely on the subject proceedings and the concerned area of constitutional law.</t>
+  </si>
+  <si>
+    <t>This dataset includes the disputed acts in any given decision. Each observation is one disputed act in any given decision. The data was obtained from the CCC database. Additionaly, information on the type of the disputed act was automatically added.</t>
+  </si>
+  <si>
+    <t>This dataset includes information on the type of verdict the CCC reached in any given decision, i.e., whether the case was granted, rejected, rejected on inadmissibility, or whether it was a procedural verdict. Each decision may contain more than one verdicts. Each observation is one verdict in any given decisions.</t>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01847E62-FD8E-264A-B058-BD5A7029A0B2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -950,13 +950,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -964,13 +964,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,13 +978,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -992,13 +992,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1034,13 +1034,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,13 +1048,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1062,13 +1062,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1076,13 +1076,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1090,13 +1090,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1379,7 +1379,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1399,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1439,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1459,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1479,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1519,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1539,7 +1539,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1559,7 +1559,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1579,7 +1579,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1599,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -1739,7 +1739,7 @@
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1">
         <v>34</v>
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1">
         <v>37</v>
@@ -1879,7 +1879,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -1899,7 +1899,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1">
         <v>40</v>
@@ -1947,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1">
         <v>41</v>
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1">
         <v>42</v>
@@ -1979,7 +1979,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1">
         <v>43</v>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
@@ -2019,7 +2019,7 @@
         <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -2067,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C48" s="1">
         <v>47</v>
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C50" s="1">
         <v>49</v>
@@ -2127,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -2147,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C53" s="1">
         <v>52</v>
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
@@ -2199,7 +2199,7 @@
         <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1">
         <v>54</v>
@@ -2227,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C56" s="1">
         <v>55</v>
@@ -2247,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C57" s="1">
         <v>56</v>
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C58" s="1">
         <v>57</v>
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1">
         <v>58</v>
@@ -2307,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C60" s="1">
         <v>59</v>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
@@ -2347,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
@@ -2367,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C63" s="1">
         <v>62</v>
@@ -2387,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -2407,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C65" s="1">
         <v>64</v>
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
@@ -2447,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -2459,7 +2459,7 @@
         <v>30</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C68" s="1">
         <v>67</v>
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
@@ -2499,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C70" s="1">
         <v>69</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2527,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
@@ -2547,13 +2547,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C72" s="1">
         <v>71</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>30</v>
@@ -2567,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -2587,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C74" s="1">
         <v>73</v>
@@ -2607,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C75" s="1">
         <v>74</v>
@@ -2627,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
@@ -2647,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1">
         <v>76</v>
@@ -2667,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
@@ -2687,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
